--- a/tests/car_owners_files/valid.xlsx
+++ b/tests/car_owners_files/valid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Олеся\Desktop\Цифровой прорыв\lonely-eye\tests\car_owners_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A0144-3643-403F-AD8F-05D1EA38A4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD4E3E-79D0-447F-B47F-E2B8DD00DD0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>У254УА797</t>
-  </si>
-  <si>
-    <t>А354УА77</t>
-  </si>
-  <si>
-    <t>У123УА152</t>
-  </si>
-  <si>
-    <t>К454УМ52</t>
-  </si>
-  <si>
-    <t>У321УА798</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -90,9 +75,6 @@
     <t>https://t.me/lkhkhuku</t>
   </si>
   <si>
-    <t>У321УА152</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -100,6 +82,24 @@
   </si>
   <si>
     <t>dawdaw@tesd.tv</t>
+  </si>
+  <si>
+    <t>A254BC797</t>
+  </si>
+  <si>
+    <t>A354BC77</t>
+  </si>
+  <si>
+    <t>A123BC152</t>
+  </si>
+  <si>
+    <t>A321BS798</t>
+  </si>
+  <si>
+    <t>Z454BC52</t>
+  </si>
+  <si>
+    <t>Z321VO152</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,108 +441,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>79036051234</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>89903214332</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>89036054939</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>71233212332</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>84959999999</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>81233214323</v>
